--- a/extraction/raw extraction/green1998/green1998.xlsx
+++ b/extraction/raw extraction/green1998/green1998.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/margaretslein/lichen/extraction/raw extraction/green1998/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E14D052-3BE9-6E47-8F17-B39EDBDB4968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DD6934-7B5B-EE4A-8818-3A83DAE09E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="-7500" windowWidth="27640" windowHeight="16140" xr2:uid="{6F6C9419-EB59-C344-B33F-4E91134EFBF8}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16740" xr2:uid="{6F6C9419-EB59-C344-B33F-4E91134EFBF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="7">
   <si>
     <t>x</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>dark respiration</t>
+  </si>
+  <si>
+    <t>ppfd</t>
   </si>
 </sst>
 </file>
@@ -404,15 +407,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{401F2CF6-F9BE-A64E-BA29-753265A1B7FF}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -422,180 +425,429 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>6.8084372480679806E-2</v>
+        <v>0.17062589280990501</v>
       </c>
       <c r="B2">
-        <v>13.3329055081159</v>
+        <v>13.1993016242526</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>5.0182895280419002</v>
+        <v>5.0777736627691601</v>
       </c>
       <c r="B3">
-        <v>17.044717093890199</v>
+        <v>17.120787259933302</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>10.0814004323707</v>
+        <v>10.2560711073488</v>
       </c>
       <c r="B4">
-        <v>23.8747327763583</v>
+        <v>23.03793450082</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>15.0255892958129</v>
+        <v>15.290196285910699</v>
       </c>
       <c r="B5">
-        <v>25.715236861420699</v>
+        <v>25.357388497963001</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>20.056613308840099</v>
+        <v>20.173535791757001</v>
       </c>
       <c r="B6">
-        <v>22.564945873425199</v>
+        <v>22.0792550658695</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>-5.7856675878275199E-2</v>
+        <v>0.14681762869689499</v>
       </c>
       <c r="B7">
-        <v>6.1602018265462899</v>
+        <v>5.9996825564784704</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>4.9851999213870801</v>
+        <v>5.1769747632400396</v>
       </c>
       <c r="B8">
-        <v>6.7525258399746502</v>
+        <v>7.1192000423257804</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>10.0282565186524</v>
+        <v>10.2031638537643</v>
       </c>
       <c r="B9">
-        <v>7.3448498534030104</v>
+        <v>7.0387810168773903</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>15.0241854943185</v>
+        <v>15.183720438071999</v>
       </c>
       <c r="B10">
-        <v>-6.7214015554120499</v>
+        <v>-6.84090788847152</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>19.959349919581999</v>
+        <v>20.206602825247298</v>
       </c>
       <c r="B11">
-        <v>-7.6878587214176104</v>
+        <v>-7.9212740066663301</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>-4.9534138446910299E-2</v>
+        <v>3.70350775091274E-2</v>
       </c>
       <c r="B12">
-        <v>-7.2511561308022001</v>
+        <v>-7.1985609227024998</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>4.9300505769623797</v>
+        <v>5.1194381249669298</v>
       </c>
       <c r="B13">
-        <v>-10.4011262498846</v>
+        <v>-10.279879371461799</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>10.0559314624001</v>
+        <v>10.193243743717201</v>
       </c>
       <c r="B14">
-        <v>-16.0471356433221</v>
+        <v>-15.9610602613618</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>15.0448414305939</v>
+        <v>15.1658642399873</v>
       </c>
       <c r="B15">
-        <v>-32.296579136301098</v>
+        <v>-32.240622189302101</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>19.990033009389201</v>
+        <v>20.133194010898801</v>
       </c>
       <c r="B16">
-        <v>-30.1441904677867</v>
+        <v>-30.120099465636699</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
+      <c r="D16">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>-3.3500837520939797E-2</v>
+      </c>
+      <c r="B17">
+        <v>15.8793969849246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
+        <v>4.9754327191513097</v>
+      </c>
+      <c r="B18">
+        <v>22.3115577889447</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
+        <v>9.9871580122836399</v>
+      </c>
+      <c r="B19">
+        <v>30.753768844221099</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>14.9865996649916</v>
+      </c>
+      <c r="B20">
+        <v>30.3517587939698</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
+        <v>20.039642657733101</v>
+      </c>
+      <c r="B21">
+        <v>28.542713567839201</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>-9.9106644332778104E-2</v>
+      </c>
+      <c r="B22">
+        <v>8.6432160804019809</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
+        <v>4.9614740368509196</v>
+      </c>
+      <c r="B23">
+        <v>12.2613065326633</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>9.9648241206030104</v>
+      </c>
+      <c r="B24">
+        <v>14.6733668341708</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
+        <v>14.9972082635399</v>
+      </c>
+      <c r="B25">
+        <v>-2.0100502512562999</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
+        <v>20.0530429927414</v>
+      </c>
+      <c r="B26">
+        <v>-1.80904522613067</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
+        <v>-1.0050251256281201E-2</v>
+      </c>
+      <c r="B27">
+        <v>-7.2361809045226604</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>4.9302065884980397</v>
+      </c>
+      <c r="B28">
+        <v>-10.251256281407001</v>
+      </c>
+      <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
+        <v>9.9221105527638098</v>
+      </c>
+      <c r="B29">
+        <v>-16.0804020100502</v>
+      </c>
+      <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>15.0106085985483</v>
+      </c>
+      <c r="B30">
+        <v>-32.361809045226202</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>20.013400335008299</v>
+      </c>
+      <c r="B31">
+        <v>-30.3517587939699</v>
+      </c>
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31">
+        <v>1600</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
